--- a/biology/Botanique/Littledalea/Littledalea.xlsx
+++ b/biology/Botanique/Littledalea/Littledalea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Littledalea  est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Asie centrale et de Chine.
-Ce genre, qui regroupe quatre espèces, dont trois endémiques de Chine[3], est l'unique genre de la tribu des Littledaleeae (tribu monotypique)[1].
+Ce genre, qui regroupe quatre espèces, dont trois endémiques de Chine, est l'unique genre de la tribu des Littledaleeae (tribu monotypique).
 Étymologie
-le nom générique « Littledalea » est un hommage au voyageur anglais et explorateur du Tibet autonome, Clement St. George Royds Littledale (1851–1931)[4].
+le nom générique « Littledalea » est un hommage au voyageur anglais et explorateur du Tibet autonome, Clement St. George Royds Littledale (1851–1931).
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 septembre 2016)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 septembre 2016) :
 Littledalea alaica (Korsh.) Petrov ex Kom. (1934)
 Littledalea przevalskyi Tzvelev, Trudy Bot. Inst. Akad. Nauk S.S.S.R. (1968)
 Littledalea racemosa Keng, Contr. Biol. Lab. Sci. Soc. China (1934)
